--- a/lesson16-tranviet.xlsx
+++ b/lesson16-tranviet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA13\3. DATABASE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685ED8AC-122C-4CD4-B5BE-56357247A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+  <si>
+    <t>SanPham</t>
+  </si>
+  <si>
+    <t>ChiTietSanPham</t>
+  </si>
+  <si>
+    <t>MaSP</t>
+  </si>
+  <si>
+    <t>TenSP</t>
+  </si>
+  <si>
+    <t>LoaiSP</t>
+  </si>
+  <si>
+    <t>NSX</t>
+  </si>
+  <si>
+    <t>KichThuoc</t>
+  </si>
+  <si>
+    <t>GiaBan</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>MauSac</t>
+  </si>
+  <si>
+    <t>GiaMua</t>
+  </si>
+  <si>
+    <t>ChiTietThongKe</t>
+  </si>
+  <si>
+    <t>MaDH</t>
+  </si>
+  <si>
+    <t>SoLuongTonKho</t>
+  </si>
+  <si>
+    <t>SoLuongBan</t>
+  </si>
+  <si>
+    <t>MaTK</t>
+  </si>
+  <si>
+    <t>DoanhThu</t>
+  </si>
+  <si>
+    <t>ChatLieu</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>DonHang</t>
+  </si>
+  <si>
+    <t>TenKH</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>LoaiHinhTT</t>
+  </si>
+  <si>
+    <t>NgayDat</t>
+  </si>
+  <si>
+    <t>TongSoLuong</t>
+  </si>
+  <si>
+    <t>TongTien</t>
+  </si>
+  <si>
+    <t>PhiVanChuyen</t>
+  </si>
+  <si>
+    <t>TaiKhoan</t>
+  </si>
+  <si>
+    <t>IDTK</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>MaKH</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>MangXaHoi</t>
+  </si>
+  <si>
+    <t>TinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>TrangThai</t>
+  </si>
+  <si>
+    <t>MaTTDH</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>MaNV</t>
+  </si>
+  <si>
+    <t>TenNV</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,14 +193,236 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,12 +434,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D66CC97-710C-4AF8-83D9-15C6086A6192}" name="Table1" displayName="Table1" ref="A5:H28" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A5:H28" xr:uid="{1D66CC97-710C-4AF8-83D9-15C6086A6192}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{464A0C79-7A76-4F8C-85D0-B60E9D756336}" name="SanPham" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D4DE67C7-ACA1-4F4D-9383-75DF75331D15}" name="ChiTietSanPham" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{69F6D57F-8B81-4F3A-8DE4-D8D9012C5ED2}" name="ChiTietThongKe" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2DCCC6CC-29CA-4EA1-BC35-A69AA63ED042}" name="DonHang" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{49FF5D14-158D-457A-888A-2F75869FD87F}" name="KhachHang" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F91D210A-DB82-4572-B165-E98AB5ABB5A9}" name="TaiKhoan" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{65672D6A-5A85-43A7-AF87-0DBC26320BA6}" name="TinhTrangDonHang" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7C2DA9AB-2985-452C-AD45-213BF6096A18}" name="NhanVien" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="888887"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -330,13 +713,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/lesson16-tranviet.xlsx
+++ b/lesson16-tranviet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA13\3. DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685ED8AC-122C-4CD4-B5BE-56357247A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2EBEE3-D4E4-4FF7-9468-0B157E5B5DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>SanPham</t>
   </si>
@@ -69,9 +69,6 @@
     <t>SoLuongTonKho</t>
   </si>
   <si>
-    <t>SoLuongBan</t>
-  </si>
-  <si>
     <t>MaTK</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>PassWord</t>
-  </si>
-  <si>
     <t>MaKH</t>
   </si>
   <si>
@@ -151,6 +145,42 @@
   </si>
   <si>
     <t>TenNV</t>
+  </si>
+  <si>
+    <t>Quyen</t>
+  </si>
+  <si>
+    <t>MaGĐ</t>
+  </si>
+  <si>
+    <t>TenGĐ</t>
+  </si>
+  <si>
+    <t>TinhTrangSanPham</t>
+  </si>
+  <si>
+    <t>SoLuongCon</t>
+  </si>
+  <si>
+    <t>SoLuongDaBan</t>
+  </si>
+  <si>
+    <t>MaTTSP</t>
+  </si>
+  <si>
+    <t>NgayThangQuy</t>
+  </si>
+  <si>
+    <t>MieuTa</t>
+  </si>
+  <si>
+    <t>Sản Phẩm &lt;=&gt; Mặt Hàng</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>GiamDoc</t>
   </si>
 </sst>
 </file>
@@ -202,7 +232,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -435,9 +495,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D66CC97-710C-4AF8-83D9-15C6086A6192}" name="Table1" displayName="Table1" ref="A5:H28" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A5:H28" xr:uid="{1D66CC97-710C-4AF8-83D9-15C6086A6192}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D66CC97-710C-4AF8-83D9-15C6086A6192}" name="Table1" displayName="Table1" ref="A5:J28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A5:J28" xr:uid="{1D66CC97-710C-4AF8-83D9-15C6086A6192}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{464A0C79-7A76-4F8C-85D0-B60E9D756336}" name="SanPham" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{D4DE67C7-ACA1-4F4D-9383-75DF75331D15}" name="ChiTietSanPham" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{69F6D57F-8B81-4F3A-8DE4-D8D9012C5ED2}" name="ChiTietThongKe" dataDxfId="7"/>
@@ -446,6 +506,8 @@
     <tableColumn id="6" xr3:uid="{F91D210A-DB82-4572-B165-E98AB5ABB5A9}" name="TaiKhoan" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{65672D6A-5A85-43A7-AF87-0DBC26320BA6}" name="TinhTrangDonHang" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{7C2DA9AB-2985-452C-AD45-213BF6096A18}" name="NhanVien" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D39408EB-EAB7-4ECC-96E6-BCCF2C1CDE8C}" name="GiamDoc" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{D9624F77-43A7-46CB-8196-39D5E766FB76}" name="TinhTrangSanPham" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H15"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -728,14 +790,19 @@
     <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,22 +813,28 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,25 +842,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,25 +874,31 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,93 +906,115 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
